--- a/public/assets/data/tournament_table.xlsx
+++ b/public/assets/data/tournament_table.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13520" tabRatio="500"/>
+    <workbookView xWindow="4240" yWindow="0" windowWidth="25600" windowHeight="13520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Naslepo" sheetId="1" r:id="rId1"/>
+    <sheet name="chess.com" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>David</t>
   </si>
@@ -94,6 +95,54 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>nickname</t>
   </si>
 </sst>
 </file>
@@ -148,8 +197,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -163,9 +216,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -531,7 +588,9 @@
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -546,7 +605,9 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -581,7 +642,9 @@
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
@@ -611,7 +674,9 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
     </row>
@@ -687,6 +752,279 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
